--- a/data/trans_dic/P16A_n_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Edad-trans_dic.xlsx
@@ -742,30 +742,30 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009706422093871365</v>
+        <v>0.0107828002689612</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.0124973829678956</v>
+        <v>0.01004623499512823</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01437476356401531</v>
+        <v>0.01660329126994972</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.03420054165128938</v>
+        <v>0.03388900566679612</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.005938466119030298</v>
+        <v>0.006784997239869642</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.008119596531153003</v>
+        <v>0.007022808244066705</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.01734608376044152</v>
+        <v>0.01356651260299147</v>
       </c>
     </row>
     <row r="7">
@@ -813,7 +813,7 @@
         <v>0.003284758065033564</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.004632586434491274</v>
+        <v>0.004632586434491275</v>
       </c>
     </row>
     <row r="8">
@@ -839,25 +839,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001456322528726442</v>
+        <v>0.001463636033242531</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001608289043605758</v>
+        <v>0.001605530142004313</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0006383331844160907</v>
+        <v>0.0006356927788420371</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.001991179947753752</v>
+        <v>0.001550638567974001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0008343152302480317</v>
+        <v>0.0008327107683887347</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.001170646346447572</v>
+        <v>0.001174380415238091</v>
       </c>
     </row>
     <row r="9">
@@ -868,40 +868,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007008739631269729</v>
+        <v>0.006075113842787776</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01838429065612043</v>
+        <v>0.0200494554831182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.007717692129769238</v>
+        <v>0.009255064569412391</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01918990584024131</v>
+        <v>0.01880503951550465</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01005194450133492</v>
+        <v>0.01013317659856929</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01716470633027501</v>
+        <v>0.01671360576449769</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01490609329539726</v>
+        <v>0.01362611317507763</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01634705030333001</v>
+        <v>0.01373280766751178</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.005875690225071829</v>
+        <v>0.005953628195538173</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01331737381547606</v>
+        <v>0.01345242963172716</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.008161554253097024</v>
+        <v>0.00748043316707643</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01130912525764607</v>
+        <v>0.01122553801585311</v>
       </c>
     </row>
     <row r="10">
@@ -960,38 +960,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001355168093428483</v>
+        <v>0.001354910311749397</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001519684044620762</v>
+        <v>0.001553848581814762</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.004004690955247638</v>
+        <v>0.003971556835677426</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00333457985498318</v>
+        <v>0.003149037757046125</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008221737512636737</v>
+        <v>0.007342752128583822</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.00995096763637625</v>
+        <v>0.01025509605114617</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003043921227928484</v>
+        <v>0.003148242285820283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00640345431410417</v>
+        <v>0.006362850596077239</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.008825012700965385</v>
+        <v>0.008829362337772241</v>
       </c>
     </row>
     <row r="12">
@@ -1002,38 +1002,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01150196095545197</v>
+        <v>0.01203532633109791</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01891609621355631</v>
+        <v>0.01860719698708561</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.02401356741755664</v>
+        <v>0.02237980667716316</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01946327755487526</v>
+        <v>0.01901832246750281</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02674563047915942</v>
+        <v>0.02547224472123355</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.009851853781863365</v>
+        <v>0.008635250611955797</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02892118213216074</v>
+        <v>0.02915884966877227</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01185495935929946</v>
+        <v>0.01210671136819513</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01826792401961218</v>
+        <v>0.01798104055900317</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.004939008631839988</v>
+        <v>0.004784120667216089</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02110457535114959</v>
+        <v>0.02157884761467273</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.02809777001627155</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05499055845941954</v>
+        <v>0.05499055845941953</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01449855137528612</v>
@@ -1092,40 +1092,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002086000718380858</v>
+        <v>0.002078867772582556</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003396280708756473</v>
+        <v>0.003320073383663054</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02217069610530023</v>
+        <v>0.02144952239220909</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009826247321313597</v>
+        <v>0.01009498598262256</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01556095048893619</v>
+        <v>0.01548032607403809</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01680484010389992</v>
+        <v>0.01611902691108674</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04337954943361658</v>
+        <v>0.0419570714639698</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008212520252693171</v>
+        <v>0.007722854058116535</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0118380636352191</v>
+        <v>0.01134938009404876</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.009309961861755065</v>
+        <v>0.00899544096724429</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03536027690574212</v>
+        <v>0.03592907177837413</v>
       </c>
     </row>
     <row r="15">
@@ -1136,40 +1136,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02224281891362389</v>
+        <v>0.02668654811945306</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02262273826022093</v>
+        <v>0.02579161807404875</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.00747215385168316</v>
+        <v>0.009180257334254045</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04952806552430191</v>
+        <v>0.04951111177749765</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03510681793883675</v>
+        <v>0.03542534008095142</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04133722640270299</v>
+        <v>0.04235610916408027</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0435476334524796</v>
+        <v>0.04363132914879746</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06916039256070426</v>
+        <v>0.06818566426000242</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02362700135705496</v>
+        <v>0.0239966457517004</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02853512763582197</v>
+        <v>0.02712936226438442</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02267295087750732</v>
+        <v>0.02259765850750932</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05537901722798993</v>
+        <v>0.05530595935482004</v>
       </c>
     </row>
     <row r="16">
@@ -1228,40 +1228,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007438565471589015</v>
+        <v>0.007355659852338868</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002469193027754706</v>
+        <v>0.002443226484879588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01216477097431531</v>
+        <v>0.01199546512855799</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04358959124318902</v>
+        <v>0.04344903710264629</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03067983879780633</v>
+        <v>0.03057522871824385</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04378692061308213</v>
+        <v>0.04740435907886895</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04637441937318455</v>
+        <v>0.04578236333797214</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09388686970078704</v>
+        <v>0.09278444961694993</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02210605535231364</v>
+        <v>0.02293591201383583</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02665850579078064</v>
+        <v>0.0285052503356571</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03250048951527156</v>
+        <v>0.03344214307290717</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07360349797784441</v>
+        <v>0.0714449513899454</v>
       </c>
     </row>
     <row r="18">
@@ -1272,40 +1272,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03723954140691779</v>
+        <v>0.03641551311720074</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02566167023139086</v>
+        <v>0.02498762527880817</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0447485059503915</v>
+        <v>0.04344589993119714</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07971179076418466</v>
+        <v>0.07815514713711427</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07539593378776405</v>
+        <v>0.07416122259090255</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08936112416796177</v>
+        <v>0.09379286695224696</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09333687161930714</v>
+        <v>0.09133370208568632</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1327306207092258</v>
+        <v>0.1326036918532145</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04911758824201896</v>
+        <v>0.04897955031068729</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05364534735185642</v>
+        <v>0.05607517757449144</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06141761376065755</v>
+        <v>0.06174663806995374</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09905424579088742</v>
+        <v>0.09928775535520089</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.08716624823357219</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1452757374134626</v>
+        <v>0.1452757374134627</v>
       </c>
     </row>
     <row r="20">
@@ -1364,40 +1364,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02242082842700347</v>
+        <v>0.02116098385543038</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02655435312223539</v>
+        <v>0.02659320170926678</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03755942297763239</v>
+        <v>0.03845327440356951</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07983829564025137</v>
+        <v>0.0790914485235345</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04549842684601063</v>
+        <v>0.04719191441628273</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09680908914650854</v>
+        <v>0.09311171107929592</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08024211207212036</v>
+        <v>0.07929539761041263</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1610056650335167</v>
+        <v>0.1606954363771256</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0405996267828439</v>
+        <v>0.03951744998725168</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06996578603848255</v>
+        <v>0.06947477450098706</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06769890205048243</v>
+        <v>0.06740696049624567</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1282887960899285</v>
+        <v>0.1268116597427202</v>
       </c>
     </row>
     <row r="21">
@@ -1408,40 +1408,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06368995375480753</v>
+        <v>0.06515173681054857</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08154289443940159</v>
+        <v>0.08407710106150219</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08894708799894248</v>
+        <v>0.08723143872248679</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.125944269460497</v>
+        <v>0.1253067835898204</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09781478022215501</v>
+        <v>0.1015113437310297</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1709617269736494</v>
+        <v>0.1668875601268828</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1461454685419439</v>
+        <v>0.1462749385729497</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2154091277905961</v>
+        <v>0.215362030304319</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07553597835063412</v>
+        <v>0.07625800414570499</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1158026810040732</v>
+        <v>0.1162832035671681</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1123804462545815</v>
+        <v>0.1111730461423201</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1641049606858579</v>
+        <v>0.1646156143848365</v>
       </c>
     </row>
     <row r="22">
@@ -1477,7 +1477,7 @@
         <v>0.140318765168253</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3257565456726956</v>
+        <v>0.3257565456726955</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.08233339984530887</v>
@@ -1500,40 +1500,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06332199748123282</v>
+        <v>0.06106373224383559</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0672575946660344</v>
+        <v>0.07346764080895932</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05486234206079904</v>
+        <v>0.05818096320123538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1534437190956729</v>
+        <v>0.1531658990079992</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04585650634044354</v>
+        <v>0.0466606183299688</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1391093519669337</v>
+        <v>0.1411814567149086</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1026776257217963</v>
+        <v>0.10713673501467</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2943998738601348</v>
+        <v>0.2955109634931501</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05847193888903113</v>
+        <v>0.06118664574565738</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1232652434460493</v>
+        <v>0.1201800049149417</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09409676720382303</v>
+        <v>0.0947255121412192</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2466405438312139</v>
+        <v>0.2454602550116017</v>
       </c>
     </row>
     <row r="24">
@@ -1544,40 +1544,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1433288331390328</v>
+        <v>0.1416178187127668</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1528014654887441</v>
+        <v>0.1689378105373219</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1177609619887119</v>
+        <v>0.1208763645582824</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2224894244746152</v>
+        <v>0.224638031968294</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1065477002132206</v>
+        <v>0.1045070331461312</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2220074435955371</v>
+        <v>0.222726809527507</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1814790621839835</v>
+        <v>0.1877558359100957</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3566358036491925</v>
+        <v>0.3572669565481753</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1056249389542723</v>
+        <v>0.1094474066313108</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1838557012445651</v>
+        <v>0.1779179648158591</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1487700739714319</v>
+        <v>0.1460841953538066</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2950113371040185</v>
+        <v>0.2941935242007224</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.03018860177585751</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.07208375173044687</v>
+        <v>0.07208375173044686</v>
       </c>
     </row>
     <row r="26">
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01122318022834878</v>
+        <v>0.01144238637360486</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01334097054065172</v>
+        <v>0.01328310100913626</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01270713609225152</v>
+        <v>0.01254758282162147</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04070212654548613</v>
+        <v>0.0415612714241106</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02045573238250396</v>
+        <v>0.02078010317046013</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04248134640155079</v>
+        <v>0.04231144856261884</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03701900656713414</v>
+        <v>0.03651188979855127</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.08736805592527144</v>
+        <v>0.0886627484541215</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01669427122577981</v>
+        <v>0.01683195214914444</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02977215403099625</v>
+        <v>0.0299025460391752</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0259017388567377</v>
+        <v>0.0261688938662226</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06710459366514861</v>
+        <v>0.06682238111472351</v>
       </c>
     </row>
     <row r="27">
@@ -1680,40 +1680,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01946498160689208</v>
+        <v>0.01925800713609086</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02341855380116064</v>
+        <v>0.02358539578053638</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02148602713303938</v>
+        <v>0.02130844137025758</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05400811772009118</v>
+        <v>0.05452977761981796</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03179400011348867</v>
+        <v>0.0322062430309303</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05779687767814759</v>
+        <v>0.05735410153037578</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05184668401652524</v>
+        <v>0.05149443638605214</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1026875376253002</v>
+        <v>0.1036457414574683</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02386913079493733</v>
+        <v>0.02364799133010926</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03937474411350065</v>
+        <v>0.03914267254379527</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0345538006209021</v>
+        <v>0.03481505442303424</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07715745636858799</v>
+        <v>0.07692147858433436</v>
       </c>
     </row>
     <row r="28">
@@ -2021,30 +2021,30 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4796</v>
+        <v>5327</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>5842</v>
+        <v>4697</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6184</v>
+        <v>7143</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>12398</v>
+        <v>12285</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5710</v>
+        <v>6524</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>7181</v>
+        <v>6211</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>13362</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="8">
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2583</v>
+        <v>2012</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1146</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="11">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5155</v>
+        <v>4468</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12632</v>
+        <v>13776</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4557</v>
+        <v>5465</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9151</v>
+        <v>8968</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6287</v>
+        <v>6338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10475</v>
+        <v>10200</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8400</v>
+        <v>7679</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8202</v>
+        <v>6890</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7997</v>
+        <v>8103</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>17277</v>
+        <v>17452</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>9419</v>
+        <v>8633</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>11067</v>
+        <v>10986</v>
       </c>
     </row>
     <row r="12">
@@ -2327,38 +2327,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>2486</v>
+        <v>2466</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2300</v>
+        <v>2172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5844</v>
+        <v>5220</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6201</v>
+        <v>6391</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4044</v>
+        <v>4182</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8918</v>
+        <v>8862</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10979</v>
+        <v>10984</v>
       </c>
     </row>
     <row r="15">
@@ -2369,38 +2369,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7346</v>
+        <v>7687</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12898</v>
+        <v>12688</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>14909</v>
+        <v>13894</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13425</v>
+        <v>13118</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19012</v>
+        <v>18107</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6516</v>
+        <v>5711</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18023</v>
+        <v>18172</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>15748</v>
+        <v>16083</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>25442</v>
+        <v>25042</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6571</v>
+        <v>6365</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>26255</v>
+        <v>26845</v>
       </c>
     </row>
     <row r="16">
@@ -2503,40 +2503,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2087</v>
+        <v>2041</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15533</v>
+        <v>15028</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5067</v>
+        <v>5205</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9589</v>
+        <v>9539</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10908</v>
+        <v>10462</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>31966</v>
+        <v>30918</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8498</v>
+        <v>7992</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14570</v>
+        <v>13969</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>12058</v>
+        <v>11650</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>50831</v>
+        <v>51648</v>
       </c>
     </row>
     <row r="19">
@@ -2547,40 +2547,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11547</v>
+        <v>13854</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13904</v>
+        <v>15852</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4827</v>
+        <v>5931</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34700</v>
+        <v>34688</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18103</v>
+        <v>18267</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25472</v>
+        <v>26100</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28266</v>
+        <v>28320</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>50963</v>
+        <v>50245</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>24449</v>
+        <v>24831</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>35121</v>
+        <v>33391</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29364</v>
+        <v>29267</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>79608</v>
+        <v>79503</v>
       </c>
     </row>
     <row r="20">
@@ -2683,40 +2683,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2877</v>
+        <v>2845</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5814</v>
+        <v>5733</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26561</v>
+        <v>26475</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12394</v>
+        <v>12352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19608</v>
+        <v>21228</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>23041</v>
+        <v>22747</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>57163</v>
+        <v>56492</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17479</v>
+        <v>18135</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>23386</v>
+        <v>25006</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>31680</v>
+        <v>32598</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>89664</v>
+        <v>87034</v>
       </c>
     </row>
     <row r="23">
@@ -2727,40 +2727,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14401</v>
+        <v>14082</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11020</v>
+        <v>10730</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21386</v>
+        <v>20764</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>48572</v>
+        <v>47624</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30459</v>
+        <v>29960</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>40016</v>
+        <v>42000</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>46374</v>
+        <v>45379</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>80814</v>
+        <v>80736</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>38837</v>
+        <v>38728</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>47059</v>
+        <v>49191</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>59868</v>
+        <v>60189</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>120668</v>
+        <v>120953</v>
       </c>
     </row>
     <row r="24">
@@ -2863,40 +2863,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6560</v>
+        <v>6191</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8226</v>
+        <v>8238</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12557</v>
+        <v>12856</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>32501</v>
+        <v>32197</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15603</v>
+        <v>16184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>34270</v>
+        <v>32961</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>30312</v>
+        <v>29955</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>70708</v>
+        <v>70572</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>25802</v>
+        <v>25114</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>46442</v>
+        <v>46116</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>48208</v>
+        <v>48000</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>108564</v>
+        <v>107314</v>
       </c>
     </row>
     <row r="27">
@@ -2907,40 +2907,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18635</v>
+        <v>19062</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>25261</v>
+        <v>26046</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29738</v>
+        <v>29164</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>51269</v>
+        <v>51010</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>33544</v>
+        <v>34812</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>60520</v>
+        <v>59078</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>55208</v>
+        <v>55257</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>94600</v>
+        <v>94580</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>48004</v>
+        <v>48463</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>76868</v>
+        <v>77187</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>80025</v>
+        <v>79165</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>138873</v>
+        <v>139305</v>
       </c>
     </row>
     <row r="28">
@@ -3043,40 +3043,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>13290</v>
+        <v>12816</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16804</v>
+        <v>18356</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14100</v>
+        <v>14952</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>47598</v>
+        <v>47512</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>15312</v>
+        <v>15580</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>54111</v>
+        <v>54917</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>41088</v>
+        <v>42873</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>136781</v>
+        <v>137297</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>31797</v>
+        <v>33273</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>78746</v>
+        <v>76775</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>61837</v>
+        <v>62250</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>191099</v>
+        <v>190184</v>
       </c>
     </row>
     <row r="31">
@@ -3087,40 +3087,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>30082</v>
+        <v>29723</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>38178</v>
+        <v>42209</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>30264</v>
+        <v>31065</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>69016</v>
+        <v>69682</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>35577</v>
+        <v>34896</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>86356</v>
+        <v>86636</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>72622</v>
+        <v>75134</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>165696</v>
+        <v>165989</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>57438</v>
+        <v>59517</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>117453</v>
+        <v>113659</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>97767</v>
+        <v>96002</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>228577</v>
+        <v>227943</v>
       </c>
     </row>
     <row r="32">
@@ -3223,40 +3223,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>36773</v>
+        <v>37491</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>45717</v>
+        <v>45518</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>43132</v>
+        <v>42591</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>143791</v>
+        <v>146826</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>69124</v>
+        <v>70220</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>151162</v>
+        <v>150557</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>131215</v>
+        <v>129418</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>326490</v>
+        <v>331329</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>111113</v>
+        <v>112029</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>207961</v>
+        <v>208872</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>179729</v>
+        <v>181583</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>487831</v>
+        <v>485780</v>
       </c>
     </row>
     <row r="35">
@@ -3267,40 +3267,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>63778</v>
+        <v>63100</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>80250</v>
+        <v>80822</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>72931</v>
+        <v>72328</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>190798</v>
+        <v>192641</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>107438</v>
+        <v>108831</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>205659</v>
+        <v>204084</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>183773</v>
+        <v>182524</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>383739</v>
+        <v>387319</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>158867</v>
+        <v>157395</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>275036</v>
+        <v>273415</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>239765</v>
+        <v>241578</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>560913</v>
+        <v>559197</v>
       </c>
     </row>
     <row r="36">
